--- a/StructureDefinition-Composition-dgc.xlsx
+++ b/StructureDefinition-Composition-dgc.xlsx
@@ -152,10 +152,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Smart Vaccination Card composition</t>
-  </si>
-  <si>
-    <t>Smart Vaccination Card composition. 
+    <t>Digital Green Certificate composition</t>
+  </si>
+  <si>
+    <t>Digital Green Certificate composition. 
 A composition is a set of healthcare-related information that is assembled together into a single logical document that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. 
 While a Composition defines the structure, it does not actually contain the content: rather the full content of a document is contained in a Bundle, of which the Composition is the first resource contained.</t>
   </si>
@@ -468,10 +468,10 @@
 </t>
   </si>
   <si>
-    <t>Kind of composition ("Smart Vaccination Card")</t>
-  </si>
-  <si>
-    <t>Specifies that this composition refers to a Smart Vaccination Card (Loinc "11369-6")</t>
+    <t>Kind of composition ("Digital Green Certificate")</t>
+  </si>
+  <si>
+    <t>Specifies that this composition refers to a Digital Green Certificate (Loinc "11369-6")</t>
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
@@ -776,11 +776,11 @@
     <t>Composition.title</t>
   </si>
   <si>
-    <t>Smart Vaccination Card</t>
+    <t>Digital Green Certificate</t>
   </si>
   <si>
     <t>Official human-readable label for the composition.
-For this document should be "Smart Vaccination Card" or any equivalent translation</t>
+For this document should be "Digital Green Certificate" or any equivalent translation</t>
   </si>
   <si>
     <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
